--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il16-Kcnj10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il16-Kcnj10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.473752</v>
+        <v>3.648214333333333</v>
       </c>
       <c r="H2">
-        <v>10.421256</v>
+        <v>10.944643</v>
       </c>
       <c r="I2">
-        <v>0.2912886159317403</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="J2">
-        <v>0.2912886159317402</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.188051</v>
       </c>
       <c r="O2">
-        <v>0.08686391746100962</v>
+        <v>0.01538636255968474</v>
       </c>
       <c r="P2">
-        <v>0.08686391746100962</v>
+        <v>0.01538636255968473</v>
       </c>
       <c r="Q2">
-        <v>0.2177475124506666</v>
+        <v>0.2286834511992222</v>
       </c>
       <c r="R2">
-        <v>1.959727612056</v>
+        <v>2.058151060793</v>
       </c>
       <c r="S2">
-        <v>0.02530247029162642</v>
+        <v>0.002212840340714152</v>
       </c>
       <c r="T2">
-        <v>0.02530247029162641</v>
+        <v>0.002212840340714152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.473752</v>
+        <v>3.648214333333333</v>
       </c>
       <c r="H3">
-        <v>10.421256</v>
+        <v>10.944643</v>
       </c>
       <c r="I3">
-        <v>0.2912886159317403</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="J3">
-        <v>0.2912886159317402</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01137366666666667</v>
+        <v>1.727625</v>
       </c>
       <c r="N3">
-        <v>0.034121</v>
+        <v>5.182875</v>
       </c>
       <c r="O3">
-        <v>0.01576106336944291</v>
+        <v>0.4240636521556707</v>
       </c>
       <c r="P3">
-        <v>0.01576106336944291</v>
+        <v>0.4240636521556707</v>
       </c>
       <c r="Q3">
-        <v>0.03950929733066666</v>
+        <v>6.302746287624999</v>
       </c>
       <c r="R3">
-        <v>0.355583675976</v>
+        <v>56.724716588625</v>
       </c>
       <c r="S3">
-        <v>0.004591018334497477</v>
+        <v>0.06098810897511241</v>
       </c>
       <c r="T3">
-        <v>0.004591018334497476</v>
+        <v>0.06098810897511239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.473752</v>
+        <v>3.648214333333333</v>
       </c>
       <c r="H4">
-        <v>10.421256</v>
+        <v>10.944643</v>
       </c>
       <c r="I4">
-        <v>0.2912886159317403</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="J4">
-        <v>0.2912886159317402</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6475733333333332</v>
+        <v>0.075253</v>
       </c>
       <c r="N4">
-        <v>1.94272</v>
+        <v>0.225759</v>
       </c>
       <c r="O4">
-        <v>0.8973750191695475</v>
+        <v>0.01847163708308845</v>
       </c>
       <c r="P4">
-        <v>0.8973750191695475</v>
+        <v>0.01847163708308845</v>
       </c>
       <c r="Q4">
-        <v>2.249509161813333</v>
+        <v>0.2745390732263333</v>
       </c>
       <c r="R4">
-        <v>20.24558245632</v>
+        <v>2.470851659037</v>
       </c>
       <c r="S4">
-        <v>0.2613951273056164</v>
+        <v>0.002656559244456484</v>
       </c>
       <c r="T4">
-        <v>0.2613951273056164</v>
+        <v>0.002656559244456483</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.016808666666666</v>
+        <v>3.648214333333333</v>
       </c>
       <c r="H5">
-        <v>9.050425999999998</v>
+        <v>10.944643</v>
       </c>
       <c r="I5">
-        <v>0.2529720086650434</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="J5">
-        <v>0.2529720086650434</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06268366666666667</v>
+        <v>2.208414</v>
       </c>
       <c r="N5">
-        <v>0.188051</v>
+        <v>6.625242</v>
       </c>
       <c r="O5">
-        <v>0.08686391746100962</v>
+        <v>0.5420783482015561</v>
       </c>
       <c r="P5">
-        <v>0.08686391746100962</v>
+        <v>0.5420783482015561</v>
       </c>
       <c r="Q5">
-        <v>0.1891046288584444</v>
+        <v>8.056767608733999</v>
       </c>
       <c r="R5">
-        <v>1.701941659726</v>
+        <v>72.510908478606</v>
       </c>
       <c r="S5">
-        <v>0.02197413968062614</v>
+        <v>0.07796078066372267</v>
       </c>
       <c r="T5">
-        <v>0.02197413968062614</v>
+        <v>0.07796078066372265</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,13 +791,13 @@
         <v>3.016808666666666</v>
       </c>
       <c r="H6">
-        <v>9.050425999999998</v>
+        <v>9.050426</v>
       </c>
       <c r="I6">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="J6">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.01137366666666667</v>
+        <v>0.06268366666666667</v>
       </c>
       <c r="N6">
-        <v>0.034121</v>
+        <v>0.188051</v>
       </c>
       <c r="O6">
-        <v>0.01576106336944291</v>
+        <v>0.01538636255968474</v>
       </c>
       <c r="P6">
-        <v>0.01576106336944291</v>
+        <v>0.01538636255968473</v>
       </c>
       <c r="Q6">
-        <v>0.03431217617177777</v>
+        <v>0.1891046288584444</v>
       </c>
       <c r="R6">
-        <v>0.3088095855459999</v>
+        <v>1.701941659726</v>
       </c>
       <c r="S6">
-        <v>0.003987107859265011</v>
+        <v>0.001829858475369934</v>
       </c>
       <c r="T6">
-        <v>0.003987107859265011</v>
+        <v>0.001829858475369934</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,48 +853,48 @@
         <v>3.016808666666666</v>
       </c>
       <c r="H7">
-        <v>9.050425999999998</v>
+        <v>9.050426</v>
       </c>
       <c r="I7">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="J7">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6475733333333332</v>
+        <v>1.727625</v>
       </c>
       <c r="N7">
-        <v>1.94272</v>
+        <v>5.182875</v>
       </c>
       <c r="O7">
-        <v>0.8973750191695475</v>
+        <v>0.4240636521556707</v>
       </c>
       <c r="P7">
-        <v>0.8973750191695475</v>
+        <v>0.4240636521556707</v>
       </c>
       <c r="Q7">
-        <v>1.953604844302221</v>
+        <v>5.21191407275</v>
       </c>
       <c r="R7">
-        <v>17.58244359871999</v>
+        <v>46.90722665475</v>
       </c>
       <c r="S7">
-        <v>0.2270107611251523</v>
+        <v>0.0504327429555437</v>
       </c>
       <c r="T7">
-        <v>0.2270107611251523</v>
+        <v>0.0504327429555437</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.631845666666667</v>
+        <v>3.016808666666666</v>
       </c>
       <c r="H8">
-        <v>4.895537</v>
+        <v>9.050426</v>
       </c>
       <c r="I8">
-        <v>0.136837075777874</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="J8">
-        <v>0.136837075777874</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.06268366666666667</v>
+        <v>0.075253</v>
       </c>
       <c r="N8">
-        <v>0.188051</v>
+        <v>0.225759</v>
       </c>
       <c r="O8">
-        <v>0.08686391746100962</v>
+        <v>0.01847163708308845</v>
       </c>
       <c r="P8">
-        <v>0.08686391746100962</v>
+        <v>0.01847163708308845</v>
       </c>
       <c r="Q8">
-        <v>0.1022900698207778</v>
+        <v>0.2270239025926667</v>
       </c>
       <c r="R8">
-        <v>0.920610628387</v>
+        <v>2.043215123334</v>
       </c>
       <c r="S8">
-        <v>0.01188620445597516</v>
+        <v>0.002196781828020277</v>
       </c>
       <c r="T8">
-        <v>0.01188620445597516</v>
+        <v>0.002196781828020276</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.631845666666667</v>
+        <v>3.016808666666666</v>
       </c>
       <c r="H9">
-        <v>4.895537</v>
+        <v>9.050426</v>
       </c>
       <c r="I9">
-        <v>0.136837075777874</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="J9">
-        <v>0.136837075777874</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.01137366666666667</v>
+        <v>2.208414</v>
       </c>
       <c r="N9">
-        <v>0.034121</v>
+        <v>6.625242</v>
       </c>
       <c r="O9">
-        <v>0.01576106336944291</v>
+        <v>0.5420783482015561</v>
       </c>
       <c r="P9">
-        <v>0.01576106336944291</v>
+        <v>0.5420783482015561</v>
       </c>
       <c r="Q9">
-        <v>0.01856006866411111</v>
+        <v>6.662362494787999</v>
       </c>
       <c r="R9">
-        <v>0.167040617977</v>
+        <v>59.961262453092</v>
       </c>
       <c r="S9">
-        <v>0.002156697822624334</v>
+        <v>0.06446791149782162</v>
       </c>
       <c r="T9">
-        <v>0.002156697822624334</v>
+        <v>0.06446791149782162</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.631845666666667</v>
+        <v>10.36785533333333</v>
       </c>
       <c r="H10">
-        <v>4.895537</v>
+        <v>31.103566</v>
       </c>
       <c r="I10">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="J10">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.6475733333333332</v>
+        <v>0.06268366666666667</v>
       </c>
       <c r="N10">
-        <v>1.94272</v>
+        <v>0.188051</v>
       </c>
       <c r="O10">
-        <v>0.8973750191695475</v>
+        <v>0.01538636255968474</v>
       </c>
       <c r="P10">
-        <v>0.8973750191695475</v>
+        <v>0.01538636255968473</v>
       </c>
       <c r="Q10">
-        <v>1.056739737848889</v>
+        <v>0.6498951877628889</v>
       </c>
       <c r="R10">
-        <v>9.51065764064</v>
+        <v>5.849056689866</v>
       </c>
       <c r="S10">
-        <v>0.1227941734992745</v>
+        <v>0.006288667943291081</v>
       </c>
       <c r="T10">
-        <v>0.1227941734992745</v>
+        <v>0.00628866794329108</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,51 +1098,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.129675</v>
+        <v>10.36785533333333</v>
       </c>
       <c r="H11">
-        <v>0.389025</v>
+        <v>31.103566</v>
       </c>
       <c r="I11">
-        <v>0.01087379043493848</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="J11">
-        <v>0.01087379043493848</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.06268366666666667</v>
+        <v>1.727625</v>
       </c>
       <c r="N11">
-        <v>0.188051</v>
+        <v>5.182875</v>
       </c>
       <c r="O11">
-        <v>0.08686391746100962</v>
+        <v>0.4240636521556707</v>
       </c>
       <c r="P11">
-        <v>0.08686391746100962</v>
+        <v>0.4240636521556707</v>
       </c>
       <c r="Q11">
-        <v>0.008128504474999999</v>
+        <v>17.91176607025</v>
       </c>
       <c r="R11">
-        <v>0.07315654027499999</v>
+        <v>161.20589463225</v>
       </c>
       <c r="S11">
-        <v>0.000944540034828812</v>
+        <v>0.1733220236349967</v>
       </c>
       <c r="T11">
-        <v>0.0009445400348288119</v>
+        <v>0.1733220236349967</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.129675</v>
+        <v>10.36785533333333</v>
       </c>
       <c r="H12">
-        <v>0.389025</v>
+        <v>31.103566</v>
       </c>
       <c r="I12">
-        <v>0.01087379043493848</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="J12">
-        <v>0.01087379043493848</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.01137366666666667</v>
+        <v>0.075253</v>
       </c>
       <c r="N12">
-        <v>0.034121</v>
+        <v>0.225759</v>
       </c>
       <c r="O12">
-        <v>0.01576106336944291</v>
+        <v>0.01847163708308845</v>
       </c>
       <c r="P12">
-        <v>0.01576106336944291</v>
+        <v>0.01847163708308845</v>
       </c>
       <c r="Q12">
-        <v>0.001474880225</v>
+        <v>0.7802122173993333</v>
       </c>
       <c r="R12">
-        <v>0.013273922025</v>
+        <v>7.021909956594</v>
       </c>
       <c r="S12">
-        <v>0.0001713825001111076</v>
+        <v>0.007549672090068392</v>
       </c>
       <c r="T12">
-        <v>0.0001713825001111076</v>
+        <v>0.007549672090068391</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.129675</v>
+        <v>10.36785533333333</v>
       </c>
       <c r="H13">
-        <v>0.389025</v>
+        <v>31.103566</v>
       </c>
       <c r="I13">
-        <v>0.01087379043493848</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="J13">
-        <v>0.01087379043493848</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6475733333333332</v>
+        <v>2.208414</v>
       </c>
       <c r="N13">
-        <v>1.94272</v>
+        <v>6.625242</v>
       </c>
       <c r="O13">
-        <v>0.8973750191695475</v>
+        <v>0.5420783482015561</v>
       </c>
       <c r="P13">
-        <v>0.8973750191695475</v>
+        <v>0.5420783482015561</v>
       </c>
       <c r="Q13">
-        <v>0.08397407199999997</v>
+        <v>22.896516868108</v>
       </c>
       <c r="R13">
-        <v>0.7557666479999998</v>
+        <v>206.068651812972</v>
       </c>
       <c r="S13">
-        <v>0.009757867899998562</v>
+        <v>0.221556636135653</v>
       </c>
       <c r="T13">
-        <v>0.00975786789999856</v>
+        <v>0.221556636135653</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.673383</v>
+        <v>0.05357233333333333</v>
       </c>
       <c r="H14">
-        <v>11.020149</v>
+        <v>0.160717</v>
       </c>
       <c r="I14">
-        <v>0.3080285091904039</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="J14">
-        <v>0.3080285091904039</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,27 +1308,27 @@
         <v>0.188051</v>
       </c>
       <c r="O14">
-        <v>0.08686391746100962</v>
+        <v>0.01538636255968474</v>
       </c>
       <c r="P14">
-        <v>0.08686391746100962</v>
+        <v>0.01538636255968473</v>
       </c>
       <c r="Q14">
-        <v>0.230261115511</v>
+        <v>0.003358110285222222</v>
       </c>
       <c r="R14">
-        <v>2.072350039599</v>
+        <v>0.030222992567</v>
       </c>
       <c r="S14">
-        <v>0.02675656299795308</v>
+        <v>3.24945328082932E-05</v>
       </c>
       <c r="T14">
-        <v>0.02675656299795308</v>
+        <v>3.249453280829319E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,108 +1346,418 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.673383</v>
+        <v>0.05357233333333333</v>
       </c>
       <c r="H15">
-        <v>11.020149</v>
+        <v>0.160717</v>
       </c>
       <c r="I15">
-        <v>0.3080285091904039</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="J15">
-        <v>0.3080285091904039</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.01137366666666667</v>
+        <v>1.727625</v>
       </c>
       <c r="N15">
-        <v>0.034121</v>
+        <v>5.182875</v>
       </c>
       <c r="O15">
-        <v>0.01576106336944291</v>
+        <v>0.4240636521556707</v>
       </c>
       <c r="P15">
-        <v>0.01576106336944291</v>
+        <v>0.4240636521556707</v>
       </c>
       <c r="Q15">
-        <v>0.041779833781</v>
+        <v>0.092552902375</v>
       </c>
       <c r="R15">
-        <v>0.376018504029</v>
+        <v>0.832976121375</v>
       </c>
       <c r="S15">
-        <v>0.004854856852944984</v>
+        <v>0.0008955820587435462</v>
       </c>
       <c r="T15">
-        <v>0.004854856852944984</v>
+        <v>0.0008955820587435462</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.05357233333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.160717</v>
+      </c>
+      <c r="I16">
+        <v>0.00211190479115806</v>
+      </c>
+      <c r="J16">
+        <v>0.00211190479115806</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.075253</v>
+      </c>
+      <c r="N16">
+        <v>0.225759</v>
+      </c>
+      <c r="O16">
+        <v>0.01847163708308845</v>
+      </c>
+      <c r="P16">
+        <v>0.01847163708308845</v>
+      </c>
+      <c r="Q16">
+        <v>0.004031478800333333</v>
+      </c>
+      <c r="R16">
+        <v>0.036283309203</v>
+      </c>
+      <c r="S16">
+        <v>3.90103388563074E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.901033885630739E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.05357233333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.160717</v>
+      </c>
+      <c r="I17">
+        <v>0.00211190479115806</v>
+      </c>
+      <c r="J17">
+        <v>0.00211190479115806</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.208414</v>
+      </c>
+      <c r="N17">
+        <v>6.625242</v>
+      </c>
+      <c r="O17">
+        <v>0.5420783482015561</v>
+      </c>
+      <c r="P17">
+        <v>0.5420783482015561</v>
+      </c>
+      <c r="Q17">
+        <v>0.118309890946</v>
+      </c>
+      <c r="R17">
+        <v>1.064789018514</v>
+      </c>
+      <c r="S17">
+        <v>0.001144817860749914</v>
+      </c>
+      <c r="T17">
+        <v>0.001144817860749914</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.673383</v>
-      </c>
-      <c r="H16">
-        <v>11.020149</v>
-      </c>
-      <c r="I16">
-        <v>0.3080285091904039</v>
-      </c>
-      <c r="J16">
-        <v>0.3080285091904039</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.6475733333333332</v>
-      </c>
-      <c r="N16">
-        <v>1.94272</v>
-      </c>
-      <c r="O16">
-        <v>0.8973750191695475</v>
-      </c>
-      <c r="P16">
-        <v>0.8973750191695475</v>
-      </c>
-      <c r="Q16">
-        <v>2.378784873919999</v>
-      </c>
-      <c r="R16">
-        <v>21.40906386528</v>
-      </c>
-      <c r="S16">
-        <v>0.2764170893395058</v>
-      </c>
-      <c r="T16">
-        <v>0.2764170893395058</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>8.280381</v>
+      </c>
+      <c r="H18">
+        <v>24.841143</v>
+      </c>
+      <c r="I18">
+        <v>0.3264255114240716</v>
+      </c>
+      <c r="J18">
+        <v>0.3264255114240716</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.06268366666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.188051</v>
+      </c>
+      <c r="O18">
+        <v>0.01538636255968474</v>
+      </c>
+      <c r="P18">
+        <v>0.01538636255968473</v>
+      </c>
+      <c r="Q18">
+        <v>0.519044642477</v>
+      </c>
+      <c r="R18">
+        <v>4.671401782293</v>
+      </c>
+      <c r="S18">
+        <v>0.005022501267501278</v>
+      </c>
+      <c r="T18">
+        <v>0.005022501267501277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>8.280381</v>
+      </c>
+      <c r="H19">
+        <v>24.841143</v>
+      </c>
+      <c r="I19">
+        <v>0.3264255114240716</v>
+      </c>
+      <c r="J19">
+        <v>0.3264255114240716</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.727625</v>
+      </c>
+      <c r="N19">
+        <v>5.182875</v>
+      </c>
+      <c r="O19">
+        <v>0.4240636521556707</v>
+      </c>
+      <c r="P19">
+        <v>0.4240636521556707</v>
+      </c>
+      <c r="Q19">
+        <v>14.305393225125</v>
+      </c>
+      <c r="R19">
+        <v>128.748539026125</v>
+      </c>
+      <c r="S19">
+        <v>0.1384251945312744</v>
+      </c>
+      <c r="T19">
+        <v>0.1384251945312744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8.280381</v>
+      </c>
+      <c r="H20">
+        <v>24.841143</v>
+      </c>
+      <c r="I20">
+        <v>0.3264255114240716</v>
+      </c>
+      <c r="J20">
+        <v>0.3264255114240716</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.075253</v>
+      </c>
+      <c r="N20">
+        <v>0.225759</v>
+      </c>
+      <c r="O20">
+        <v>0.01847163708308845</v>
+      </c>
+      <c r="P20">
+        <v>0.01847163708308845</v>
+      </c>
+      <c r="Q20">
+        <v>0.623123511393</v>
+      </c>
+      <c r="R20">
+        <v>5.608111602536999</v>
+      </c>
+      <c r="S20">
+        <v>0.006029613581686994</v>
+      </c>
+      <c r="T20">
+        <v>0.006029613581686992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.280381</v>
+      </c>
+      <c r="H21">
+        <v>24.841143</v>
+      </c>
+      <c r="I21">
+        <v>0.3264255114240716</v>
+      </c>
+      <c r="J21">
+        <v>0.3264255114240716</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.208414</v>
+      </c>
+      <c r="N21">
+        <v>6.625242</v>
+      </c>
+      <c r="O21">
+        <v>0.5420783482015561</v>
+      </c>
+      <c r="P21">
+        <v>0.5420783482015561</v>
+      </c>
+      <c r="Q21">
+        <v>18.286509325734</v>
+      </c>
+      <c r="R21">
+        <v>164.578583931606</v>
+      </c>
+      <c r="S21">
+        <v>0.1769482020436089</v>
+      </c>
+      <c r="T21">
+        <v>0.1769482020436089</v>
       </c>
     </row>
   </sheetData>
